--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Python\ICTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Python\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FFBCB7-202D-430E-A1DC-AB75E6E6BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FE1B2-C45B-4514-B012-C10B73FD7159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E451E760-AAAB-4882-8FC6-6D21F8337747}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E451E760-AAAB-4882-8FC6-6D21F8337747}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -104,55 +105,19 @@
     <t>dofamamomuda2017@gmail.com</t>
   </si>
   <si>
-    <t>Norah</t>
-  </si>
-  <si>
-    <t>Ndiege</t>
-  </si>
-  <si>
-    <t>norahndiege1@gmail.com</t>
-  </si>
-  <si>
-    <t>Antony</t>
-  </si>
-  <si>
-    <t>Kiriinya</t>
-  </si>
-  <si>
-    <t>antonykkiriinya@gmail.com</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Otieno</t>
-  </si>
-  <si>
-    <t>michealvenum007@gmail.com</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Macahria</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>stanly@gmai.com</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Muigai</t>
-  </si>
-  <si>
-    <t>john@gmail.com</t>
+    <t xml:space="preserve">stanley </t>
+  </si>
+  <si>
+    <t>macharia</t>
+  </si>
+  <si>
+    <t>stanly@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -535,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59678A2D-041B-42E9-9220-E09FE145C450}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +516,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -639,110 +604,162 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{02FA6922-4AC3-42A5-B6DE-CE1559BECFDD}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{39C62218-13E1-4A53-9046-7F4E5FEBFF71}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A62C506-1CC0-45D7-9319-FD4E5118F0F0}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{8344B063-AE0C-4AE4-8D26-98F650A19FFF}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{70DE9ACB-F9AD-4B8B-BEC0-1D5BFBE23C28}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{02FA6922-4AC3-42A5-B6DE-CE1559BECFDD}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{D126AA37-19D0-4C1F-8362-1646C23EC7EA}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{2AFF9FD0-1B57-4E7F-B082-CABC64BB9F0D}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{82CDB664-5787-4014-8CE2-8C8D36534272}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{3388CA92-94F4-4A98-9882-F79DB4917BF4}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{65897B61-BDA1-46C3-A15B-1F41FC59049A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Python\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FE1B2-C45B-4514-B012-C10B73FD7159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65585B43-4122-487D-9195-42D6A0B2D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E451E760-AAAB-4882-8FC6-6D21F8337747}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">stanley </t>
-  </si>
-  <si>
-    <t>macharia</t>
   </si>
   <si>
     <t>stanly@gmail.com</t>
@@ -500,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59678A2D-041B-42E9-9220-E09FE145C450}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,29 +603,97 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{02FA6922-4AC3-42A5-B6DE-CE1559BECFDD}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{39C62218-13E1-4A53-9046-7F4E5FEBFF71}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{801DDE9C-A436-4A38-9DB4-CD1FC03E9833}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{FCF60262-0457-465C-848D-F05905FE239E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,16 +701,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A62C506-1CC0-45D7-9319-FD4E5118F0F0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,85 +747,159 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{82CDB664-5787-4014-8CE2-8C8D36534272}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{3388CA92-94F4-4A98-9882-F79DB4917BF4}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{65897B61-BDA1-46C3-A15B-1F41FC59049A}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{82CDB664-5787-4014-8CE2-8C8D36534272}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{3388CA92-94F4-4A98-9882-F79DB4917BF4}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{74F50197-65FA-4A57-9467-5933629A9D69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
